--- a/Куделин/Солнечная энергетика/Solar Cent.America Argentina.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Cent.America Argentina.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>406.6554684854928</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.01581193613686</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.64739614542054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725.77977795766571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>858.8689152691901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006.1736052833191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.476355530506854</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.805432587433</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.506478300473812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.405687788313628</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.848178570869177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.810498606795552</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627551888"/>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85372496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627551888"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627528496"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627551888"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6099425365665</c:v>
+                  <c:v>0.37071330010853931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0859994378495</c:v>
+                  <c:v>0.67402509923373055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6697870532705</c:v>
+                  <c:v>1.0650094913723731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3813425636101</c:v>
+                  <c:v>1.5295302467970426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9815725091175</c:v>
+                  <c:v>2.3006693605596142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4136624418018</c:v>
+                  <c:v>0.37332086653030067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.803783168778</c:v>
+                  <c:v>0.68439155803312612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2216759015998</c:v>
+                  <c:v>1.0931878680072922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.2922056342579</c:v>
+                  <c:v>1.5909153548105239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7466360660774</c:v>
+                  <c:v>2.4298942633639946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627535568"/>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85371952"/>
+        <c:axId val="-85342576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627535568"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530128"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535568"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6580547411697</c:v>
+                  <c:v>0.37990941444603182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5668828869757</c:v>
+                  <c:v>0.70671279267505516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.0957633192304</c:v>
+                  <c:v>1.1486901437962818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0274518681667</c:v>
+                  <c:v>1.7050926400984487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1441216730173</c:v>
+                  <c:v>2.6612427756440842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0559243794983</c:v>
+                  <c:v>0.38002725912081836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.3979198085656</c:v>
+                  <c:v>0.70710946805018426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5241930226655</c:v>
+                  <c:v>1.1496827197606332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2120528332678</c:v>
+                  <c:v>1.7071585803720073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4561924132377</c:v>
+                  <c:v>2.6654902995812302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627544816"/>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85342032"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627544816"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530672"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627544816"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>1.7E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>1.2701010101010099E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>2.5417524986301372E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>4.0904888E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>6.4229888000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>8.7364609568000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>1.1080186984197261E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.8306068822691691E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>8.6033285768078224E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>1.1229127052818351E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>1.526054507966533E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>2.4859290481539131E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>6.2774645041868041E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>0.13265601959489501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>0.33833680882621792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>0.53213793025070777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>1.1085761069722511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>2.852893519694641</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>4.8665241636508876</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>7.6118941723343028</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>12.766447466689151</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>18.830686723735319</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>25.520673652514699</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>36.575341105887041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>54.779900763404633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627545360"/>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85350736"/>
+        <c:axId val="-85347472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627545360"/>
+        <c:axId val="-85350736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532304"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627532304"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545360"/>
+        <c:crossAx val="-85350736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627533392"/>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627533392"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627522512"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533392"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627536112"/>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627536112"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627549168"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627536112"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627550256"/>
-        <c:axId val="1627533936"/>
+        <c:axId val="-85345840"/>
+        <c:axId val="-85348560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627550256"/>
+        <c:axId val="-85345840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533936"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627533936"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550256"/>
+        <c:crossAx val="-85345840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>1.7E-5</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>1.2701010101010099E-4</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>2.5417524986301372E-3</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>4.0904888E-3</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>6.4229888000000004E-3</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>8.7364609568000001E-3</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>1.1080186984197261E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.8306068822691691E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>8.6033285768078224E-3</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>1.1229127052818351E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>1.526054507966533E-2</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>2.4859290481539131E-2</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>6.2774645041868041E-2</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>0.13265601959489501</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>0.33833680882621792</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>0.53213793025070777</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>1.1085761069722511</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>2.852893519694641</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>4.8665241636508876</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>7.6118941723343028</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>12.766447466689151</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>18.830686723735319</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>25.520673652514699</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>36.575341105887041</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>54.779900763404633</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14417,113 +14417,113 @@
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="e">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54497017277840398</v>
-      </c>
-      <c r="G16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" t="e">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71417317499817679</v>
-      </c>
-      <c r="H16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92701753715219148</v>
-      </c>
-      <c r="I16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="6"/>
-        <v>1.200984838402239</v>
-      </c>
-      <c r="J16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
         <f t="shared" si="6"/>
-        <v>1.5520665702516099</v>
-      </c>
-      <c r="K16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" t="e">
         <f t="shared" si="6"/>
-        <v>2.0090878353812878</v>
-      </c>
-      <c r="L16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="e">
         <f t="shared" si="6"/>
-        <v>2.5749993209547708</v>
-      </c>
-      <c r="M16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" si="6"/>
-        <v>3.3086292442275274</v>
-      </c>
-      <c r="N16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
         <f t="shared" si="6"/>
-        <v>4.242017228156719</v>
-      </c>
-      <c r="O16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" t="e">
         <f t="shared" si="6"/>
-        <v>5.4363004731486795</v>
-      </c>
-      <c r="P16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
         <f t="shared" si="6"/>
-        <v>6.9458482717938379</v>
-      </c>
-      <c r="Q16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
         <f t="shared" si="6"/>
-        <v>8.8516715403344914</v>
-      </c>
-      <c r="R16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
         <f t="shared" si="6"/>
-        <v>11.261486522517441</v>
-      </c>
-      <c r="S16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" si="6"/>
-        <v>14.254379611813876</v>
-      </c>
-      <c r="T16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="6"/>
-        <v>17.940305538705879</v>
-      </c>
-      <c r="U16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="6"/>
-        <v>22.614332848635055</v>
-      </c>
-      <c r="V16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
         <f t="shared" si="6"/>
-        <v>28.313234717190603</v>
-      </c>
-      <c r="W16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="6"/>
-        <v>35.226865261838562</v>
-      </c>
-      <c r="X16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
         <f t="shared" si="6"/>
-        <v>43.53789038418239</v>
-      </c>
-      <c r="Y16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" t="e">
         <f t="shared" si="6"/>
-        <v>53.352078295937623</v>
-      </c>
-      <c r="Z16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" t="e">
         <f t="shared" si="6"/>
-        <v>64.544957065880453</v>
-      </c>
-      <c r="AA16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="6"/>
-        <v>77.302172031210986</v>
-      </c>
-      <c r="AB16" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="43" t="e">
         <f t="shared" si="6"/>
-        <v>91.360343450644024</v>
-      </c>
-      <c r="AC16" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>106.63158420928373</v>
-      </c>
-      <c r="AD16" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>121.13238181224516</v>
-      </c>
-      <c r="AE16" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>133.08913731152438</v>
-      </c>
-      <c r="AF16" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="45" t="e">
         <f t="shared" si="6"/>
-        <v>147.30469001412905</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14537,369 +14537,369 @@
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="6" t="e">
         <f>E$3+F16</f>
-        <v>0.54497017277840398</v>
-      </c>
-      <c r="G17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="6" t="e">
         <f>F17+G16</f>
-        <v>1.2591433477765808</v>
-      </c>
-      <c r="H17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="6" t="e">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1861608849287721</v>
-      </c>
-      <c r="I17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="6" t="e">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.3871457233310114</v>
-      </c>
-      <c r="J17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="6" t="e">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9392122935826208</v>
-      </c>
-      <c r="K17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="6" t="e">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9483001289639086</v>
-      </c>
-      <c r="L17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="6" t="e">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5232994499186798</v>
-      </c>
-      <c r="M17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="6" t="e">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.831928694146207</v>
-      </c>
-      <c r="N17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="6" t="e">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.073945922302926</v>
-      </c>
-      <c r="O17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="6" t="e">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.510246395451606</v>
-      </c>
-      <c r="P17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="6" t="e">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.456094667245445</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="6" t="e">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.307766207579938</v>
-      </c>
-      <c r="R17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="6" t="e">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.569252730097375</v>
-      </c>
-      <c r="S17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="6" t="e">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.823632341911249</v>
-      </c>
-      <c r="T17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="6" t="e">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.763937880617135</v>
-      </c>
-      <c r="U17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="6" t="e">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.37827072925219</v>
-      </c>
-      <c r="V17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="6" t="e">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.69150544644279</v>
-      </c>
-      <c r="W17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="6" t="e">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>167.91837070828134</v>
-      </c>
-      <c r="X17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="6" t="e">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.45626109246373</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y17" s="6" t="e">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>264.80833938840135</v>
-      </c>
-      <c r="Z17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.3532964542818</v>
-      </c>
-      <c r="AA17" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" s="6" t="e">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>406.6554684854928</v>
-      </c>
-      <c r="AB17" s="49">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="49" t="e">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.01581193613686</v>
-      </c>
-      <c r="AC17" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC17" s="50" t="e">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>604.64739614542054</v>
-      </c>
-      <c r="AD17" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="50" t="e">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>725.77977795766571</v>
-      </c>
-      <c r="AE17" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE17" s="50" t="e">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>858.8689152691901</v>
-      </c>
-      <c r="AF17" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF17" s="51" t="e">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1006.1736052833191</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>AF17-$AF$3</f>
-        <v>1003.2359035947808</v>
-      </c>
-      <c r="C18" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="18" t="e">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>596.59685210928808</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="e">
         <f>SUM(F18:AA18)</f>
-        <v>462028.45396792679</v>
-      </c>
-      <c r="F18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
         <f>(F3-F17)^2</f>
-        <v>0.29699248921812349</v>
-      </c>
-      <c r="G18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5854419702500153</v>
-      </c>
-      <c r="H18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="32"/>
-        <v>4.779225085611464</v>
-      </c>
-      <c r="I18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
         <f>(I3-I17)^2</f>
-        <v>11.472580020177947</v>
-      </c>
-      <c r="J18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
         <f t="shared" si="32"/>
-        <v>24.395462459088559</v>
-      </c>
-      <c r="K18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="e">
         <f t="shared" si="32"/>
-        <v>48.278277130197779</v>
-      </c>
-      <c r="L18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" si="32"/>
-        <v>90.692337224882124</v>
-      </c>
-      <c r="M18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" si="32"/>
-        <v>164.65672586514756</v>
-      </c>
-      <c r="N18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" t="e">
         <f t="shared" si="32"/>
-        <v>291.51723901019557</v>
-      </c>
-      <c r="O18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" t="e">
         <f t="shared" si="32"/>
-        <v>506.70754613058688</v>
-      </c>
-      <c r="P18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
         <f t="shared" si="32"/>
-        <v>867.65621095678546</v>
-      </c>
-      <c r="Q18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
         <f t="shared" si="32"/>
-        <v>1467.4766083949826</v>
-      </c>
-      <c r="R18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
         <f t="shared" si="32"/>
-        <v>2457.096570037681</v>
-      </c>
-      <c r="S18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
         <f t="shared" si="32"/>
-        <v>4073.4463334067623</v>
-      </c>
-      <c r="T18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="32"/>
-        <v>6685.3274923435465</v>
-      </c>
-      <c r="U18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
         <f t="shared" si="32"/>
-        <v>10894.486469976146</v>
-      </c>
-      <c r="V18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
         <f t="shared" si="32"/>
-        <v>17604.866717903431</v>
-      </c>
-      <c r="W18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="32"/>
-        <v>28191.517018980445</v>
-      </c>
-      <c r="X18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
         <f t="shared" si="32"/>
-        <v>44707.007692161613</v>
-      </c>
-      <c r="Y18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y18" t="e">
         <f t="shared" si="32"/>
-        <v>70115.680463538767</v>
-      </c>
-      <c r="Z18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z18" t="e">
         <f t="shared" si="32"/>
-        <v>108464.19236981998</v>
-      </c>
-      <c r="AA18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA18" t="e">
         <f t="shared" si="32"/>
-        <v>165355.31819302129</v>
-      </c>
-      <c r="AB18" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="43" t="e">
         <f t="shared" si="32"/>
-        <v>247912.05973101722</v>
-      </c>
-      <c r="AC18" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>364632.04266059236</v>
-      </c>
-      <c r="AD18" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>524806.67768923938</v>
-      </c>
-      <c r="AE18" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>733877.14316357172</v>
-      </c>
-      <c r="AF18" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF18" s="45" t="e">
         <f t="shared" si="32"/>
-        <v>1006482.2782616363</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="20" t="e">
         <f>(B18/$AF$3)*100</f>
-        <v>34150.366850010309</v>
-      </c>
-      <c r="C19" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="21" t="e">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>20422.41396225577</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="e">
         <f>SUM(F19:AA19)</f>
-        <v>1961.2994815254478</v>
-      </c>
-      <c r="F19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" t="e">
         <f>SQRT(F18)</f>
-        <v>0.54497017277840398</v>
-      </c>
-      <c r="G19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" t="e">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2591433477765808</v>
-      </c>
-      <c r="H19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.186143884928772</v>
-      </c>
-      <c r="I19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3871197233310113</v>
-      </c>
-      <c r="J19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9391762935826211</v>
-      </c>
-      <c r="K19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" t="e">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9482571289639088</v>
-      </c>
-      <c r="L19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" t="e">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5232524499186795</v>
-      </c>
-      <c r="M19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.831863694146207</v>
-      </c>
-      <c r="N19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" t="e">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.073875922302925</v>
-      </c>
-      <c r="O19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" t="e">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.510165395451605</v>
-      </c>
-      <c r="P19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.456004667245445</v>
-      </c>
-      <c r="Q19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.307657307579937</v>
-      </c>
-      <c r="R19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.569109030097373</v>
-      </c>
-      <c r="S19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.82355625791125</v>
-      </c>
-      <c r="T19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.763851990617141</v>
-      </c>
-      <c r="U19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>104.37665672925219</v>
-      </c>
-      <c r="V19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>132.68333247964279</v>
-      </c>
-      <c r="W19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>167.90329662928136</v>
-      </c>
-      <c r="X19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>211.44031709246374</v>
-      </c>
-      <c r="Y19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y19" t="e">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>264.79365638840136</v>
-      </c>
-      <c r="Z19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z19" t="e">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>329.3390234542818</v>
-      </c>
-      <c r="AA19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" t="e">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>406.63905148549281</v>
-      </c>
-      <c r="AB19" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="43" t="e">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>497.90768193613684</v>
-      </c>
-      <c r="AC19" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC19" s="44" t="e">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>603.8476982324205</v>
-      </c>
-      <c r="AD19" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="44" t="e">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>724.43541995766566</v>
-      </c>
-      <c r="AE19" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE19" s="44" t="e">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>856.66629626919007</v>
-      </c>
-      <c r="AF19" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF19" s="45" t="e">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>1003.2359035947808</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15042,113 +15042,113 @@
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="e">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7692997225706431</v>
-      </c>
-      <c r="G24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8923453091900058</v>
-      </c>
-      <c r="H24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4456401884186771</v>
-      </c>
-      <c r="I24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
         <f t="shared" si="60"/>
-        <v>5.9134326828183914</v>
-      </c>
-      <c r="J24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" t="e">
         <f t="shared" si="60"/>
-        <v>6.3947033185718842</v>
-      </c>
-      <c r="K24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" t="e">
         <f t="shared" si="60"/>
-        <v>6.98147530095794</v>
-      </c>
-      <c r="L24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" t="e">
         <f t="shared" si="60"/>
-        <v>7.4680448198811709</v>
-      </c>
-      <c r="M24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
         <f t="shared" si="60"/>
-        <v>8.0781086902121935</v>
-      </c>
-      <c r="N24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
         <f t="shared" si="60"/>
-        <v>8.7506839130310166</v>
-      </c>
-      <c r="O24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" t="e">
         <f t="shared" si="60"/>
-        <v>9.5637528439540258</v>
-      </c>
-      <c r="P24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" si="60"/>
-        <v>10.411287477317069</v>
-      </c>
-      <c r="Q24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" t="e">
         <f t="shared" si="60"/>
-        <v>11.290784994209563</v>
-      </c>
-      <c r="R24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" t="e">
         <f t="shared" si="60"/>
-        <v>12.306412900516642</v>
-      </c>
-      <c r="S24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" t="e">
         <f t="shared" si="60"/>
-        <v>13.128986294671012</v>
-      </c>
-      <c r="T24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="60"/>
-        <v>13.646188175894933</v>
-      </c>
-      <c r="U24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
         <f t="shared" si="60"/>
-        <v>14.917076443711345</v>
-      </c>
-      <c r="V24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
         <f t="shared" si="60"/>
-        <v>16.047342646926111</v>
-      </c>
-      <c r="W24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="60"/>
-        <v>17.102238314822195</v>
-      </c>
-      <c r="X24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" t="e">
         <f t="shared" si="60"/>
-        <v>18.219781767928382</v>
-      </c>
-      <c r="Y24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" t="e">
         <f t="shared" si="60"/>
-        <v>19.362333042073033</v>
-      </c>
-      <c r="Z24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" t="e">
         <f t="shared" si="60"/>
-        <v>20.289187369521102</v>
-      </c>
-      <c r="AA24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" si="60"/>
-        <v>21.462082530506855</v>
-      </c>
-      <c r="AB24" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="43" t="e">
         <f t="shared" si="60"/>
-        <v>22.789015587432999</v>
-      </c>
-      <c r="AC24" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>24.398348300473813</v>
-      </c>
-      <c r="AD24" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>25.605989875313629</v>
-      </c>
-      <c r="AE24" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="44" t="e">
         <f t="shared" si="60"/>
-        <v>26.503820570869177</v>
-      </c>
-      <c r="AF24" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="45" t="e">
         <f t="shared" si="60"/>
-        <v>28.607879606795553</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15162,369 +15162,369 @@
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="6" t="e">
         <f>E$3+F24</f>
-        <v>3.7692997225706431</v>
-      </c>
-      <c r="G25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6" t="e">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8923453091900058</v>
-      </c>
-      <c r="H25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>5.4456401884186771</v>
-      </c>
-      <c r="I25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>5.9134496828183911</v>
-      </c>
-      <c r="J25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>6.3947293185718843</v>
-      </c>
-      <c r="K25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>6.9815113009579397</v>
-      </c>
-      <c r="L25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>7.4680878198811707</v>
-      </c>
-      <c r="M25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>8.0781556902121938</v>
-      </c>
-      <c r="N25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>8.7507489130310159</v>
-      </c>
-      <c r="O25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>9.5638228439540249</v>
-      </c>
-      <c r="P25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>10.411368477317069</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>11.290874994209563</v>
-      </c>
-      <c r="R25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>12.306521800516643</v>
-      </c>
-      <c r="S25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>13.129129994671013</v>
-      </c>
-      <c r="T25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>13.646264259894933</v>
-      </c>
-      <c r="U25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>14.917162333711344</v>
-      </c>
-      <c r="V25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>16.048956646926111</v>
-      </c>
-      <c r="W25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>17.110411281622195</v>
-      </c>
-      <c r="X25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>18.234855846928383</v>
-      </c>
-      <c r="Y25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>19.378277042073034</v>
-      </c>
-      <c r="Z25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>20.303870369521103</v>
-      </c>
-      <c r="AA25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="6" t="e">
         <f t="shared" si="61"/>
-        <v>21.476355530506854</v>
-      </c>
-      <c r="AB25" s="49">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="49" t="e">
         <f t="shared" si="61"/>
-        <v>22.805432587433</v>
-      </c>
-      <c r="AC25" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>24.506478300473812</v>
-      </c>
-      <c r="AD25" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>26.405687788313628</v>
-      </c>
-      <c r="AE25" s="50">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE25" s="50" t="e">
         <f t="shared" si="61"/>
-        <v>27.848178570869177</v>
-      </c>
-      <c r="AF25" s="51">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF25" s="51" t="e">
         <f t="shared" si="61"/>
-        <v>30.810498606795552</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="17" t="e">
         <f>AF25-$AF$3</f>
-        <v>27.87279691825724</v>
-      </c>
-      <c r="C26" s="18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="18" t="e">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>6.4128583877503855</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="e">
         <f>SUM(F26:AA26)</f>
-        <v>3578.4842039185905</v>
-      </c>
-      <c r="F26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" t="e">
         <f>(F3-F25)^2</f>
-        <v>14.207620398571127</v>
-      </c>
-      <c r="G26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" t="e">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.935042624353454</v>
-      </c>
-      <c r="H26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" t="e">
         <f t="shared" si="62"/>
-        <v>29.654811910243204</v>
-      </c>
-      <c r="I26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
         <f t="shared" si="62"/>
-        <v>34.96857965251742</v>
-      </c>
-      <c r="J26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" t="e">
         <f t="shared" si="62"/>
-        <v>40.8921026385879</v>
-      </c>
-      <c r="K26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" t="e">
         <f t="shared" si="62"/>
-        <v>48.740899637280542</v>
-      </c>
-      <c r="L26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" t="e">
         <f t="shared" si="62"/>
-        <v>55.771633687411423</v>
-      </c>
-      <c r="M26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" si="62"/>
-        <v>65.255549199292929</v>
-      </c>
-      <c r="N26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" t="e">
         <f t="shared" si="62"/>
-        <v>76.574381438965702</v>
-      </c>
-      <c r="O26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" t="e">
         <f t="shared" si="62"/>
-        <v>91.46515805779714</v>
-      </c>
-      <c r="P26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" t="e">
         <f t="shared" si="62"/>
-        <v>108.39471953224562</v>
-      </c>
-      <c r="Q26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" t="e">
         <f t="shared" si="62"/>
-        <v>127.48139899415226</v>
-      </c>
-      <c r="R26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" t="e">
         <f t="shared" si="62"/>
-        <v>151.44694195287562</v>
-      </c>
-      <c r="S26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" t="e">
         <f t="shared" si="62"/>
-        <v>172.37205658930583</v>
-      </c>
-      <c r="T26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="62"/>
-        <v>186.21818410298835</v>
-      </c>
-      <c r="U26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
         <f t="shared" si="62"/>
-        <v>222.47358209527926</v>
-      </c>
-      <c r="V26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" t="e">
         <f t="shared" si="62"/>
-        <v>257.30674107260018</v>
-      </c>
-      <c r="W26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" t="e">
         <f t="shared" si="62"/>
-        <v>292.25055407135841</v>
-      </c>
-      <c r="X26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" t="e">
         <f t="shared" si="62"/>
-        <v>331.92874888614733</v>
-      </c>
-      <c r="Y26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" t="e">
         <f t="shared" si="62"/>
-        <v>374.94877422620624</v>
-      </c>
-      <c r="Z26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" t="e">
         <f t="shared" si="62"/>
-        <v>411.66776141727769</v>
-      </c>
-      <c r="AA26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" t="e">
         <f t="shared" si="62"/>
-        <v>460.52896173313263</v>
-      </c>
-      <c r="AB26" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="43" t="e">
         <f t="shared" si="62"/>
-        <v>515.16754474549282</v>
-      </c>
-      <c r="AC26" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>562.01143633991308</v>
-      </c>
-      <c r="AD26" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>628.070250758616</v>
-      </c>
-      <c r="AE26" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE26" s="44" t="e">
         <f t="shared" si="62"/>
-        <v>657.69472570299968</v>
-      </c>
-      <c r="AF26" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF26" s="45" t="e">
         <f t="shared" si="62"/>
-        <v>776.89280804641032</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="20" t="e">
         <f>(B26/$AF$3)*100</f>
-        <v>948.79602741848453</v>
-      </c>
-      <c r="C27" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="21" t="e">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>219.5218566992562</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="e">
         <f>SUM(F27:AA27)</f>
-        <v>255.4247717477042</v>
-      </c>
-      <c r="F27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" t="e">
         <f>SQRT(F26)</f>
-        <v>3.7692997225706431</v>
-      </c>
-      <c r="G27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" t="e">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8923453091900058</v>
-      </c>
-      <c r="H27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4456231884186774</v>
-      </c>
-      <c r="I27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.913423682818391</v>
-      </c>
-      <c r="J27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3946933185718846</v>
-      </c>
-      <c r="K27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" t="e">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9814683009579399</v>
-      </c>
-      <c r="L27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" t="e">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4680408198811703</v>
-      </c>
-      <c r="M27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" t="e">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0780906902121945</v>
-      </c>
-      <c r="N27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7506789130310167</v>
-      </c>
-      <c r="O27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" t="e">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5637418439540252</v>
-      </c>
-      <c r="P27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" t="e">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.411278477317069</v>
-      </c>
-      <c r="Q27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" t="e">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.290766094209562</v>
-      </c>
-      <c r="R27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" t="e">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.306378100516643</v>
-      </c>
-      <c r="S27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" t="e">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.129053910671013</v>
-      </c>
-      <c r="T27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.646178369894933</v>
-      </c>
-      <c r="U27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="e">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.915548333711344</v>
-      </c>
-      <c r="V27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" t="e">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>16.040783680126111</v>
-      </c>
-      <c r="W27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" t="e">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>17.095337202622193</v>
-      </c>
-      <c r="X27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" t="e">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>18.218911846928382</v>
-      </c>
-      <c r="Y27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" t="e">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>19.363594042073032</v>
-      </c>
-      <c r="Z27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" t="e">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>20.289597369521104</v>
-      </c>
-      <c r="AA27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>21.459938530506854</v>
-      </c>
-      <c r="AB27" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="43" t="e">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>22.697302587433001</v>
-      </c>
-      <c r="AC27" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC27" s="44" t="e">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>23.706780387473813</v>
-      </c>
-      <c r="AD27" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="44" t="e">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>25.061329788313628</v>
-      </c>
-      <c r="AE27" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE27" s="44" t="e">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>25.645559570869178</v>
-      </c>
-      <c r="AF27" s="45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF27" s="45" t="e">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>27.87279691825724</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>2.5346350052346242E-8</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.1289663933115147E-7</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>5.7522505818026232E-6</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>6.1027604239814718E-6</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>1.167853313203252E-5</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819014</v>
+        <v>1.6604295242436241E-5</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>2.3369871136120562E-5</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>6.6861289710672643E-5</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>-5.4836930812665079E-5</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>4.5630758371000826E-5</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>7.9791708084060267E-5</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>1.9537202354808267E-4</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>8.0425704598282904E-4</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>1.8110873560944962E-3</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>6.0023881176698747E-3</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>7.4174513657448444E-3</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>2.2722402171430813E-2</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>7.4537748491121519E-2</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189099</v>
+        <v>0.10214887437706255</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>0.15487252638102547</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>0.30331179912519124</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>0.39098439213864256</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>0.46452075542466953</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>0.7711391137625716</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9647167305578606</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.958574377795911</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.726229871424248</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.635375376936771</v>
+        <v>2.5346350052346242E-8</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>27.997669727071635</v>
+        <v>2.382429893834977E-7</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.681518217872025</v>
+        <v>5.9904935711861212E-6</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.710439171332027</v>
+        <v>1.2093253995167593E-5</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.5407727359012</v>
+        <v>2.3771787127200113E-5</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.266687939720214</v>
+        <v>4.0376082369636354E-5</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04309164406645</v>
+        <v>6.3745953505756916E-5</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73458598197203</v>
+        <v>1.3060724321642956E-4</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80283531733298</v>
+        <v>7.577031240376448E-5</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86031245231607</v>
+        <v>1.2140107077476531E-4</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42481596418907</v>
+        <v>2.0119277885882557E-4</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49029624351317</v>
+        <v>3.9656480240690825E-4</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.98966915671519</v>
+        <v>1.2008218483897373E-3</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81273993282264</v>
+        <v>3.0119092044842335E-3</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.33619098686711</v>
+        <v>9.0142973221541082E-3</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.65974949177439</v>
+        <v>1.6431748687898953E-2</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.28145916417191</v>
+        <v>3.9154150859329766E-2</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73317981339142</v>
+        <v>0.11369189935045129</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6557327252824</v>
+        <v>0.21584077372751384</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6099425365665</v>
+        <v>0.37071330010853931</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0859994378495</v>
+        <v>0.67402509923373055</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6697870532705</v>
+        <v>1.0650094913723731</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3813425636101</v>
+        <v>1.5295302467970426</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9815725091175</v>
+        <v>2.3006693605596142</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1791.0438708205793</v>
+        <v>-0.63703232797869758</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>684.40455509529681</v>
+        <v>-0.8364561017062111</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4503223.3337001875</v>
+        <v>5.0316685505233362E-2</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.295579520259736</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.92464990486866</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.76619702019821</v>
+        <v>2.8899999999999998E-10</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>468.08834266211841</v>
+        <v>6.7468263223473877E-10</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.86749431525902</v>
+        <v>1.2789032644863791E-9</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1345.5306241593596</v>
+        <v>1.369703566104416E-9</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2181.860736799636</v>
+        <v>1.2184809166458832E-9</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3665.1772931638075</v>
+        <v>1.6997655366849016E-9</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6125.6634837221345</v>
+        <v>8.775764957705697E-10</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10412.776021305061</v>
+        <v>2.9770212042550269E-10</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17353.977431624204</v>
+        <v>1.6489482016382639E-9</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28494.360445924969</v>
+        <v>1.0975762002241619E-9</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47028.332791283006</v>
+        <v>4.9724224459202584E-10</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72589.690459507547</v>
+        <v>1.5652206547546528E-8</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104645.91619456021</v>
+        <v>9.6518832850571498E-8</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>170559.13370212601</v>
+        <v>1.7071618496807322E-7</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>255838.2599636857</v>
+        <v>2.6636515504230974E-5</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>370054.58127603494</v>
+        <v>3.6720953983156781E-5</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>525108.64483760053</v>
+        <v>2.3789878254714999E-7</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>722953.59064861399</v>
+        <v>5.9883722438007589E-4</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>938416.32041773212</v>
+        <v>9.884117548055165E-3</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1224650.5751089212</v>
+        <v>3.9769841527722644E-2</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1566256.786782311</v>
+        <v>6.894998949589122E-2</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1991729.0248716883</v>
+        <v>1.5793656119931481E-2</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2344957.5696651828</v>
+        <v>7.8035589272479305E-2</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2608802.3090525731</v>
+        <v>0.45304846968831147</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3207838.1472039637</v>
+        <v>0.4058101868899589</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>60967.520215156161</v>
+        <v>-21.684718038735259</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>23428.204645051013</v>
+        <v>-28.633159410585851</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6701.2195754032264</v>
+        <v>0.33620616833156103</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9647167305578606</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.958574377795911</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.726212871424249</v>
+        <v>1.7E-5</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.635349376936773</v>
+        <v>2.5974653649947651E-5</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.997633727071634</v>
+        <v>3.576175701061651E-5</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.681475217872027</v>
+        <v>3.700950642881388E-5</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.710392171332025</v>
+        <v>3.4906746004832406E-5</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.540707735901201</v>
+        <v>4.1228212872799878E-5</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.26661793972022</v>
+        <v>2.962391763036364E-5</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.04301064406646</v>
+        <v>1.7254046494243102E-5</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.73449598197203</v>
+        <v>4.0607243216429553E-5</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.80272641733299</v>
+        <v>3.3129687596235524E-5</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.86016875231607</v>
+        <v>2.229892922523469E-5</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.42473988018907</v>
+        <v>1.251087788588256E-4</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>323.49021035351319</v>
+        <v>3.1067480240690827E-4</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>412.98805515671518</v>
+        <v>4.1317815161026269E-4</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>505.80456696602266</v>
+        <v>5.1610575955157653E-3</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>608.32111690786712</v>
+        <v>6.0597816778458925E-3</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>724.6438054917744</v>
+        <v>4.8774868789895273E-4</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>850.26677616417192</v>
+        <v>2.4471150859329764E-2</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>968.71890681339141</v>
+        <v>9.9418899350451298E-2</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1106.6393157252824</v>
+        <v>0.19942377372751385</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1251.5018125365664</v>
+        <v>0.26258330010853931</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1411.2863015248495</v>
+        <v>0.1256728137662696</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1531.3254290532705</v>
+        <v>0.27934850862762683</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1615.1787235636102</v>
+        <v>0.67308875320295725</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1791.0438708205793</v>
+        <v>0.63703232797869758</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>2.2689661484593843E-8</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>1.9505470023698022E-7</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>5.3628514291522548E-6</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>5.8814964889990452E-6</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>1.1416616733071849E-5</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.06101008665874</v>
+        <v>1.6496904439039347E-5</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>2.3476682511239491E-5</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>6.7043937848240015E-5</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>-5.4060668710279283E-5</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>4.616108399464145E-5</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>8.0568335362260645E-5</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>1.9672570364854383E-4</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>8.0811177100169427E-4</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>1.8141045799599021E-3</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>5.9985769850058315E-3</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>7.3877694454244202E-3</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>2.2651832580886159E-2</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>7.4448322458242316E-2</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173115</v>
+        <v>0.10263954203824825</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>0.15717331598342546</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>0.31107069150282546</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>0.40879630997416605</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>0.49772748680323176</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>0.83897890855347068</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.310080560004911</v>
+        <v>0</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.079494904627166</v>
+        <v>0</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.643210877016017</v>
+        <v>0</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.367654213762073</v>
+        <v>2.2689661484593843E-8</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.588726619776548</v>
+        <v>2.1774436172157406E-7</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.171596002395276</v>
+        <v>5.5805957908738286E-6</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.2725642270591</v>
+        <v>1.1462092279872874E-5</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.266327030105785</v>
+        <v>2.2878709012944723E-5</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.327337116764525</v>
+        <v>3.937561345198407E-5</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61254470742196</v>
+        <v>6.2852295963223561E-5</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.01743946478177</v>
+        <v>1.2989623381146358E-4</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.94820676938497</v>
+        <v>7.5835565101184293E-5</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92420175716927</v>
+        <v>1.2199664909582574E-4</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26238808354077</v>
+        <v>2.0256498445808639E-4</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.7138863533188</v>
+        <v>3.9929068810663022E-4</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25288933976145</v>
+        <v>1.2074024591083245E-3</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42457703638581</v>
+        <v>3.0215070390682266E-3</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.72671063344069</v>
+        <v>9.0200840240740581E-3</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.60594181073975</v>
+        <v>1.6407853469498478E-2</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23003744191033</v>
+        <v>3.9059686050384637E-2</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.16630336083142</v>
+        <v>0.11350800850862695</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2286344525626</v>
+        <v>0.21614755054687521</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4136624418018</v>
+        <v>0.37332086653030067</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.803783168778</v>
+        <v>0.68439155803312612</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2216759015998</v>
+        <v>1.0931878680072922</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.2922056342579</v>
+        <v>1.5909153548105239</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7466360660774</v>
+        <v>2.4298942633639946</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1891.8089343775391</v>
+        <v>-0.50780742517431721</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>783.59671692497648</v>
+        <v>-0.70753797572119215</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4503784.1984395226</v>
+        <v>5.0397796754875657E-2</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.057438913771534</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.75520734165934</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.42312691987937</v>
+        <v>2.8899999999999998E-10</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>375.10502262651272</v>
+        <v>6.7482065242353926E-10</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.78108763464024</v>
+        <v>1.2803698185631087E-9</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.6950345955097</v>
+        <v>1.4002118113659695E-9</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1960.0557816202445</v>
+        <v>1.2629428851242712E-9</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3394.9572909609474</v>
+        <v>1.7742031544161836E-9</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5825.8517055139246</v>
+        <v>9.3785305144229875E-10</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10122.867853277303</v>
+        <v>3.2933916180643249E-10</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17165.545860776754</v>
+        <v>1.591709472338969E-9</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28543.459773683287</v>
+        <v>1.0932568551780223E-9</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47490.895080104485</v>
+        <v>4.7103544046972135E-10</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73583.241911336198</v>
+        <v>1.5997439429486691E-8</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>106089.47981225867</v>
+        <v>9.8219991305709327E-8</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>172433.62167129837</v>
+        <v>1.6532156025915772E-7</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>257471.40711890921</v>
+        <v>2.6537537668499231E-5</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>370529.8564767855</v>
+        <v>3.6650855168536553E-5</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>523582.48493174638</v>
+        <v>2.1516004116577591E-7</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>719469.28751101554</v>
+        <v>5.942228227990169E-4</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>935383.04983107862</v>
+        <v>9.8475869137072645E-3</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1228134.3189111257</v>
+        <v>3.989229282175788E-2</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1588370.0351034133</v>
+        <v>7.0326195691091734E-2</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2053500.7083597488</v>
+        <v>1.3295555495746755E-2</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2470798.3025335269</v>
+        <v>6.3086435205234243E-2</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2822701.019116872</v>
+        <v>0.37418134953809229</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3578941.0441906801</v>
+        <v>0.25786838106216975</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>64397.584743154468</v>
+        <v>-17.285874435636885</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>26823.702599045744</v>
+        <v>-24.220096675179388</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6686.0536851429606</v>
+        <v>0.33619530680479176</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.310080560004911</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.079494904627166</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.643193877016017</v>
+        <v>1.7E-5</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.367628213762075</v>
+        <v>2.5977310338515403E-5</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.588690619776546</v>
+        <v>3.5782255638278433E-5</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.171553002395278</v>
+        <v>3.7419404209126174E-5</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.272517227059097</v>
+        <v>3.5537907720127127E-5</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.266262030105786</v>
+        <v>4.2121290987055271E-5</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.327267116764531</v>
+        <v>3.0624386548015924E-5</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.61246370742197</v>
+        <v>1.8147704036776456E-5</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.01734946478177</v>
+        <v>3.989623381146357E-5</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.94809786938498</v>
+        <v>3.3064434898815711E-5</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.92405805716928</v>
+        <v>2.1703350904174254E-5</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.26231199954077</v>
+        <v>1.2648098445808639E-4</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.71380046331882</v>
+        <v>3.1340068810663024E-4</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>415.25127533976143</v>
+        <v>4.0659754089167549E-4</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>507.41640406958584</v>
+        <v>5.1514597609317722E-3</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>608.7116365544407</v>
+        <v>6.0539949759259425E-3</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>723.58999781073976</v>
+        <v>4.6385346949847847E-4</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>848.21535444191034</v>
+        <v>2.4376686050384636E-2</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>967.15203036083142</v>
+        <v>9.923500850862696E-2</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1108.2122174525625</v>
+        <v>0.19973055054687522</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1260.3055324418017</v>
+        <v>0.26519086653030066</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1433.0040852557779</v>
+        <v>0.11530635496687403</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1571.8773179015998</v>
+        <v>0.25117013199270777</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1680.089586634258</v>
+        <v>0.61170364518947595</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1891.8089343775391</v>
+        <v>0.50780742517431721</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>1.5495693027593885E-8</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>1.4955943712456386E-7</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>4.4405979840489134E-6</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>5.5158475735243162E-6</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>1.1161415883402918E-5</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398951</v>
+        <v>1.6779706506687311E-5</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>2.4328580375942395E-5</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>6.8706792326914611E-5</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>-5.3911362609402905E-5</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>4.7252507291788465E-5</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>8.1700895542558303E-5</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>1.9812774378533606E-4</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>8.1051285042998121E-4</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>1.8068119893165562E-3</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>5.9570957779295662E-3</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>7.3172905794865687E-3</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>2.2529184980400983E-2</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>7.4484914849167916E-2</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584684</v>
+        <v>0.10416527859553276</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>0.16243405704397654</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>0.32680337822902333</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>0.4419773511212266</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>0.55640249630216698</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>0.95615013554563544</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6269318817343055</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7528280317080913</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8211660449246914</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.226959096098408</v>
+        <v>1.5495693027593885E-8</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.39683107871139</v>
+        <v>1.6505513015215776E-7</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.201741076289132</v>
+        <v>4.605653114201071E-6</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.094501974862389</v>
+        <v>1.0121500687725387E-5</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.202244383028194</v>
+        <v>2.1282916571128305E-5</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.782181622427146</v>
+        <v>3.8062623077815616E-5</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.874438167129398</v>
+        <v>6.2391203453758011E-5</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.22957450081717</v>
+        <v>1.3109799578067262E-4</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.9581471233567</v>
+        <v>7.7186633171269717E-5</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.28725586929335</v>
+        <v>1.2443914046305818E-4</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.04987404958365</v>
+        <v>2.0614003600561649E-4</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77385550242269</v>
+        <v>4.0426777979095255E-4</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79040849871433</v>
+        <v>1.2147806302209338E-3</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.4389492132027</v>
+        <v>3.0215926195374899E-3</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93309767464382</v>
+        <v>8.9786883974670561E-3</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67214302389618</v>
+        <v>1.6295978976953625E-2</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.13709625709885</v>
+        <v>3.8825163957354608E-2</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.47980616274936</v>
+        <v>0.11331007880652252</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0365467985962</v>
+        <v>0.21747535740205529</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6580547411697</v>
+        <v>0.37990941444603182</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5668828869757</v>
+        <v>0.70671279267505516</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.0957633192304</v>
+        <v>1.1486901437962818</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0274518681667</v>
+        <v>1.7050926400984487</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1441216730173</v>
+        <v>2.6612427756440842</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2072.206419984479</v>
+        <v>-0.27645891289422764</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>957.18629018588274</v>
+        <v>-0.47751727029628288</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4504661.3617240069</v>
+        <v>5.0879753552836589E-2</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.154634874740751</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.095030362406391</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.812670472775807</v>
+        <v>2.8899999999999998E-10</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.95175912866341</v>
+        <v>6.7519446407906742E-10</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.23565932552236</v>
+        <v>1.2841432738250349E-9</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>795.33577438616999</v>
+        <v>1.4741258727870583E-9</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1528.3764097815424</v>
+        <v>1.3600237115254391E-9</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2937.8762498699666</v>
+        <v>1.9111833835269275E-9</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5443.7999954643001</v>
+        <v>1.0199960446696752E-9</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9974.8872195473323</v>
+        <v>3.462873088994284E-10</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17484.636571351846</v>
+        <v>1.6890452571881842E-9</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29569.566909625406</v>
+        <v>1.0057376356136104E-9</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49411.560236564008</v>
+        <v>3.7098071010180241E-10</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76203.490956839552</v>
+        <v>1.6914572501494213E-8</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108750.73912438726</v>
+        <v>1.0136441066461629E-7</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>174547.47680868892</v>
+        <v>1.5937610520679483E-7</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>257485.99268202684</v>
+        <v>2.6536655947135785E-5</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>367136.65131805121</v>
+        <v>3.7153786597446936E-5</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>516466.73239547387</v>
+        <v>1.2388920021732045E-7</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>710855.40373647423</v>
+        <v>5.828440805437918E-4</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>932123.6957252319</v>
+        <v>9.8083429785293542E-3</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1243269.8898560782</v>
+        <v>4.0424463081212607E-2</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1644934.3094535801</v>
+        <v>7.386405011662793E-2</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2189710.9217258045</v>
+        <v>8.6462326018444981E-3</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2728282.7049740525</v>
+        <v>3.8285909951358936E-2</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3242970.078674661</v>
+        <v>0.24753247879688781</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4294039.4470248912</v>
+        <v>7.642953051865814E-2</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>70538.354117756928</v>
+        <v>-9.410721108029966</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>32765.936642238677</v>
+        <v>-16.346139497113256</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6651.6795104114872</v>
+        <v>0.3370244248858757</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6269318817343055</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7528280317080913</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8211490449246917</v>
+        <v>1.7E-5</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.226933096098408</v>
+        <v>2.5984504306972403E-5</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.396795078711389</v>
+        <v>3.5834944869847853E-5</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.20169807628913</v>
+        <v>3.8394346885798933E-5</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.094454974862387</v>
+        <v>3.6878499312274613E-5</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.202179383028195</v>
+        <v>4.3717083428871689E-5</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.782111622427152</v>
+        <v>3.1937376922184378E-5</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.874357167129403</v>
+        <v>1.8608796546242006E-5</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.22948450081716</v>
+        <v>4.1097995780672617E-5</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.95803822335671</v>
+        <v>3.1713366828730287E-5</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.28711216929335</v>
+        <v>1.9260859536941814E-5</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>276.04979796558365</v>
+        <v>1.3005603600561649E-4</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.77376961242271</v>
+        <v>3.1837777979095257E-4</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>417.78879449871431</v>
+        <v>3.9921936977906623E-4</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>507.43077624640273</v>
+        <v>5.1513741804625089E-3</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>605.91802359564383</v>
+        <v>6.0953906025329446E-3</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>718.65619902389619</v>
+        <v>3.5197897695362496E-4</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>843.12241325709886</v>
+        <v>2.4142163957354607E-2</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>965.46553316274935</v>
+        <v>9.903707880652253E-2</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1115.0201297985961</v>
+        <v>0.2010583574020553</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1282.5499247411697</v>
+        <v>0.27177941444603182</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1479.7671849739756</v>
+        <v>9.2985120324944992E-2</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1651.7514053192303</v>
+        <v>0.19566785620371818</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1800.8248328681668</v>
+        <v>0.49752635990155114</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2072.206419984479</v>
+        <v>0.27645891289422764</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>1.5231145169929297E-8</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>1.4784599590969035E-7</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>4.4052933534987609E-6</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>5.5005689268479457E-6</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>1.1148195610355244E-5</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613803</v>
+        <v>1.67836145652273E-5</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>2.4349438671356625E-5</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>6.8738978238137784E-5</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>-5.3883667780071649E-5</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>4.7278526727776728E-5</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>8.1727984511123096E-5</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>1.9816254271234662E-4</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>8.105862881293475E-4</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>1.8067363963117061E-3</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>5.956516880654775E-3</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>7.3161846855737452E-3</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>2.2527394466476114E-2</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>7.448643228026236E-2</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791272</v>
+        <v>0.10419244472332943</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>0.1625265888474032</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>0.3270822089293659</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>0.44257325171044892</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>0.55747586061137411</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>0.95833171920922289</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4744068390269205</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5697140718253166</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6129904012240637</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.001143852723438</v>
+        <v>1.5231145169929297E-8</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.164383169457128</v>
+        <v>1.6307714107961965E-7</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.973448853845607</v>
+        <v>4.5683704945783804E-6</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.891483016258569</v>
+        <v>1.0068939421426326E-5</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.034715320004928</v>
+        <v>2.121713503178157E-5</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.66224347761873</v>
+        <v>3.800074959700887E-5</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.808781978906723</v>
+        <v>6.2350188268365495E-5</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22066901633889</v>
+        <v>1.3108916650650328E-4</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00017623872046</v>
+        <v>7.720549872643163E-5</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.36743451304935</v>
+        <v>1.2448402545420836E-4</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.1462570855972</v>
+        <v>2.0621200996533145E-4</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86095348123473</v>
+        <v>4.0437455267767808E-4</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85238697656126</v>
+        <v>1.2149608408070255E-3</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.45651843651603</v>
+        <v>3.0216972371187316E-3</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90109057615075</v>
+        <v>8.9782141177735062E-3</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60245547989246</v>
+        <v>1.6294398803347251E-2</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06389755275836</v>
+        <v>3.8821793269823365E-2</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46401514323725</v>
+        <v>0.11330822555008573</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.16633059115</v>
+        <v>0.21750067027341516</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0559243794983</v>
+        <v>0.38002725912081836</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.3979198085656</v>
+        <v>0.70710946805018426</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5241930226655</v>
+        <v>1.1496827197606332</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2120528332678</v>
+        <v>1.7071585803720073</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4561924132377</v>
+        <v>2.6654902995812302</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2075.5184907246994</v>
+        <v>-0.27221138895708163</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>960.36857713354937</v>
+        <v>-0.47329505923049675</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4504786.734817395</v>
+        <v>5.0889406655168327E-2</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.071502883077038</v>
+        <v>0</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>31.021714841888947</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.18331081019322</v>
+        <v>2.8899999999999998E-10</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>169.02906542040409</v>
+        <v>6.7520821243894687E-10</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.2722024314794</v>
+        <v>1.2842850399962104E-9</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.51143506396363</v>
+        <v>1.476990146441994E-9</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1512.543795406734</v>
+        <v>1.363903235458278E-9</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2919.7434352052087</v>
+        <v>1.9169392648252483E-9</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5426.1158014467974</v>
+        <v>1.0239520263533276E-9</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9961.7767910968178</v>
+        <v>3.4781547762541269E-10</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17482.281515415914</v>
+        <v>1.6883196041991504E-9</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29584.023164524377</v>
+        <v>1.0045414109802272E-9</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49447.212023535263</v>
+        <v>3.6925367774451214E-10</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76256.713281766875</v>
+        <v>1.693329897753741E-8</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108808.1919680421</v>
+        <v>1.0143241029430072E-7</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>174599.26847710973</v>
+        <v>1.5923225056943602E-7</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>257503.82331995229</v>
+        <v>2.6535578109466967E-5</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>367097.86498678563</v>
+        <v>3.7159568662362236E-5</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>516366.57448084163</v>
+        <v>1.227793213871859E-7</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>710731.97815802286</v>
+        <v>5.8268134052326967E-4</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>932093.20460444328</v>
+        <v>9.8079758997563545E-3</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1243559.3297823491</v>
+        <v>4.0434642450627549E-2</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1645955.0431032192</v>
+        <v>7.3928119517413446E-2</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2192171.0946803102</v>
+        <v>8.5726201382250872E-3</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2733003.5669255671</v>
+        <v>3.7898464736275977E-2</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3250843.0184917613</v>
+        <v>0.2454810274179465</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4307777.0053401338</v>
+        <v>7.409904027794359E-2</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>70651.097721137165</v>
+        <v>-9.266134475775301</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>32874.87114493033</v>
+        <v>-16.201606816599366</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6650.208428452298</v>
+        <v>0.33704349001484168</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4744068390269205</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5697140718253166</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.612973401224064</v>
+        <v>1.7E-5</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>13.001117852723437</v>
+        <v>2.598476885483007E-5</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.164347169457127</v>
+        <v>3.5836922858920386E-5</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.973405853845605</v>
+        <v>3.8431629505421625E-5</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.891436016258567</v>
+        <v>3.6931060578573668E-5</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.034650320004928</v>
+        <v>4.3782864968218424E-5</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.662173477618737</v>
+        <v>3.1999250402991124E-5</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.808700978906728</v>
+        <v>1.8649811731634523E-5</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.22057901633889</v>
+        <v>4.1089166506503273E-5</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>172.00006733872047</v>
+        <v>3.1694501273568375E-5</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.36729081304935</v>
+        <v>1.9215974545791638E-5</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>276.1461810015972</v>
+        <v>1.3012800996533148E-4</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.86086759123475</v>
+        <v>3.184845526776781E-4</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>417.85077297656125</v>
+        <v>3.9903915919297446E-4</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>507.44834546971606</v>
+        <v>5.1512695628812676E-3</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>605.88601649715076</v>
+        <v>6.0958648822264944E-3</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>718.58651147989247</v>
+        <v>3.503988033472516E-4</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>843.04921455275837</v>
+        <v>2.4138793269823364E-2</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>965.44974214323724</v>
+        <v>9.9035225550085731E-2</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1115.1499135911499</v>
+        <v>0.20108367027341517</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1282.9477943794982</v>
+        <v>0.27189725912081836</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1480.5982218955655</v>
+        <v>9.2588444949815885E-2</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1653.1798350226654</v>
+        <v>0.19467528023936675</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1803.0094338332678</v>
+        <v>0.49546041962799259</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2075.5184907246994</v>
+        <v>0.27221138895708163</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>1.7E-5</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>1.2701010101010099E-4</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>2.5417524986301372E-3</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>4.0904888E-3</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>6.4229888000000004E-3</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>8.7364609568000001E-3</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.1080186984197261E-2</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8306068822691691E-2</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>8.6033285768078224E-3</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.1229127052818351E-2</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.526054507966533E-2</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.4859290481539131E-2</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.2774645041868041E-2</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>0.13265601959489501</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>0.33833680882621792</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>0.53213793025070777</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>1.1085761069722511</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>2.852893519694641</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>4.8665241636508876</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>7.6118941723343028</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>12.766447466689151</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>18.830686723735319</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>25.520673652514699</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>36.575341105887041</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>54.779900763404633</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>1.7E-5</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>1.2701010101010099E-4</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>2.5417524986301372E-3</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>4.0904888E-3</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>6.4229888000000004E-3</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>8.7364609568000001E-3</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.1080186984197261E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8306068822691691E-2</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>8.6033285768078224E-3</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>1.1229127052818351E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>1.526054507966533E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>2.4859290481539131E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.2774645041868041E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>0.13265601959489501</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>0.33833680882621792</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>0.53213793025070777</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>1.1085761069722511</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>2.852893519694641</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>4.8665241636508876</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>7.6118941723343028</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>12.766447466689151</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>18.830686723735319</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>25.520673652514699</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>36.575341105887041</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>54.779900763404633</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
